--- a/class_schedules/PHYSICS (PHYS).xlsx
+++ b/class_schedules/PHYSICS (PHYS).xlsx
@@ -14,54 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="75">
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>391H</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>491F</t>
-  </si>
-  <si>
-    <t>491H</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>995F</t>
   </si>
   <si>
     <t>995H</t>
@@ -70,175 +55,130 @@
     <t>01</t>
   </si>
   <si>
-    <t>13820</t>
-  </si>
-  <si>
-    <t>14718</t>
-  </si>
-  <si>
-    <t>11233</t>
-  </si>
-  <si>
-    <t>14719</t>
-  </si>
-  <si>
-    <t>13447</t>
-  </si>
-  <si>
-    <t>14720</t>
-  </si>
-  <si>
-    <t>14028</t>
-  </si>
-  <si>
-    <t>11989</t>
-  </si>
-  <si>
-    <t>11990</t>
-  </si>
-  <si>
-    <t>14032</t>
-  </si>
-  <si>
-    <t>14721</t>
-  </si>
-  <si>
-    <t>14723</t>
-  </si>
-  <si>
-    <t>10702</t>
-  </si>
-  <si>
-    <t>14722</t>
-  </si>
-  <si>
-    <t>10744</t>
-  </si>
-  <si>
-    <t>11639</t>
-  </si>
-  <si>
-    <t>10696</t>
+    <t>1464</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>5893</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>1477</t>
+  </si>
+  <si>
+    <t>14689</t>
+  </si>
+  <si>
+    <t>12812</t>
+  </si>
+  <si>
+    <t>12813</t>
+  </si>
+  <si>
+    <t>9499</t>
+  </si>
+  <si>
+    <t>9500</t>
+  </si>
+  <si>
+    <t>11524</t>
+  </si>
+  <si>
+    <t>11515</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Cleveland Immersion</t>
-  </si>
-  <si>
-    <t>Intro: Classics of Sociology</t>
-  </si>
-  <si>
-    <t>Intro Soc: Analysis of Society</t>
-  </si>
-  <si>
-    <t>Sociology of Sexuality</t>
-  </si>
-  <si>
-    <t>Sociology of Popular Culture</t>
-  </si>
-  <si>
-    <t>Political Sociology</t>
-  </si>
-  <si>
-    <t>Enacting the Law</t>
-  </si>
-  <si>
-    <t>Social Research Methods</t>
-  </si>
-  <si>
-    <t>Social Research Methods Lab</t>
-  </si>
-  <si>
-    <t>Cities, Culture, and Society</t>
-  </si>
-  <si>
-    <t>Constructing Immigrant Cmties</t>
-  </si>
-  <si>
-    <t>Sociology of Social Movements</t>
-  </si>
-  <si>
-    <t>Practicum -</t>
-  </si>
-  <si>
-    <t>How Places Make Us</t>
-  </si>
-  <si>
-    <t>Senior Honors -</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Elementary Physics I</t>
+  </si>
+  <si>
+    <t>Mechanics and Relativity</t>
+  </si>
+  <si>
+    <t>Modern Physics</t>
+  </si>
+  <si>
+    <t>Quantum Mechanics</t>
+  </si>
+  <si>
+    <t>Intermediate Laboratory</t>
+  </si>
+  <si>
+    <t>Waves &amp; Optics</t>
+  </si>
+  <si>
+    <t>Electrodynamics</t>
+  </si>
+  <si>
+    <t>Applied Quantum Mechanics</t>
+  </si>
+  <si>
+    <t>Spec Probs in Physics &amp;</t>
   </si>
   <si>
     <t>Private Reading -</t>
   </si>
   <si>
-    <t>Program</t>
+    <t>MWF</t>
   </si>
   <si>
     <t>TR</t>
   </si>
   <si>
-    <t>MWF</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>Astron</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Full</t>
   </si>
   <si>
     <t>Half</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Full</t>
+    <t>1000-1050am</t>
+  </si>
+  <si>
+    <t>0900-0950am</t>
+  </si>
+  <si>
+    <t>1100-1150am</t>
+  </si>
+  <si>
+    <t>0130-0420pm</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>0930-1050am</t>
-  </si>
-  <si>
-    <t>1000-1050am</t>
-  </si>
-  <si>
-    <t>0300-0415pm</t>
-  </si>
-  <si>
-    <t>0230-0420pm</t>
-  </si>
-  <si>
-    <t>0130-0220pm</t>
-  </si>
-  <si>
-    <t>0300-0420pm</t>
-  </si>
-  <si>
-    <t>Mattson Greggor</t>
-  </si>
-  <si>
-    <t>Vujacic Veljko</t>
-  </si>
-  <si>
-    <t>White Clovis</t>
-  </si>
-  <si>
-    <t>Baldoz Richard</t>
-  </si>
-  <si>
-    <t>Parris Christie</t>
-  </si>
-  <si>
-    <t>Jalili Jaleh</t>
+    <t>Staff A&amp;S</t>
+  </si>
+  <si>
+    <t>Owen Robert</t>
+  </si>
+  <si>
+    <t>Ijiri Yumi</t>
+  </si>
+  <si>
+    <t>FitzGerald Stephen</t>
+  </si>
+  <si>
+    <t>Stalnaker Jason</t>
   </si>
 </sst>
 </file>
@@ -596,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,31 +582,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -677,31 +617,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -712,31 +652,31 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -747,31 +687,31 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -782,31 +722,31 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -817,31 +757,31 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -852,31 +792,31 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -887,31 +827,31 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -922,31 +862,31 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -957,31 +897,28 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -992,31 +929,31 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1027,206 +964,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
         <v>53</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
